--- a/Resources/工作簿1.xlsx
+++ b/Resources/工作簿1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Documents/My Project/Documents/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>基地址偏移0byte</t>
     <rPh sb="0" eb="1">
@@ -100,16 +100,6 @@
     </rPh>
     <rPh sb="3" eb="4">
       <t>pian'yi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基地址</t>
-    <rPh sb="0" eb="1">
-      <t>ji'chu</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>di'zhi</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -222,6 +212,48 @@
     <rPh sb="6" eb="7">
       <t>di'zhi</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Array基地址</t>
+    <rPh sb="5" eb="6">
+      <t>ji'chu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>di'zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>person实例对象基地址</t>
+    <rPh sb="6" eb="7">
+      <t>shi'li</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>dui'x</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ji'chu</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>di'zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>age</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sex</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -610,14 +642,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B25:E32"/>
+  <dimension ref="B5:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="6.33203125" customWidth="1"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
     <col min="3" max="3" width="21.83203125" customWidth="1"/>
     <col min="4" max="4" width="3.83203125" customWidth="1"/>
@@ -625,59 +658,97 @@
     <col min="7" max="7" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="25" spans="2:5" ht="7" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="2:5" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="3" t="s">
+    <row r="5" spans="2:5" ht="7" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="2:5" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="2:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="4"/>
-    </row>
-    <row r="27" spans="2:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C27" s="1" t="s">
+    </row>
+    <row r="8" spans="2:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="2:5" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C19" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E27" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C28" s="2" t="s">
+      <c r="E19" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C20" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E28" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C29" s="2" t="s">
+      <c r="E20" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C21" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E29" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C30" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C31" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C32" s="2" t="s">
+      <c r="E21" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C22" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E32" s="5" t="s">
-        <v>12</v>
+      <c r="E22" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
